--- a/natmiOut/OldD7/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.179451858901</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H2">
-        <v>11.179451858901</v>
+        <v>34.311362</v>
       </c>
       <c r="I2">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J2">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.39073445222373</v>
+        <v>1.501929333333333</v>
       </c>
       <c r="N2">
-        <v>1.39073445222373</v>
+        <v>4.505788</v>
       </c>
       <c r="O2">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="P2">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="Q2">
-        <v>15.54764885715024</v>
+        <v>17.17774701813956</v>
       </c>
       <c r="R2">
-        <v>15.54764885715024</v>
+        <v>154.599723163256</v>
       </c>
       <c r="S2">
-        <v>0.4441217672770678</v>
+        <v>0.443446125883497</v>
       </c>
       <c r="T2">
-        <v>0.4441217672770678</v>
+        <v>0.443446125883497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.179451858901</v>
+        <v>11.43712066666667</v>
       </c>
       <c r="H3">
-        <v>11.179451858901</v>
+        <v>34.311362</v>
       </c>
       <c r="I3">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="J3">
-        <v>0.5878713716760071</v>
+        <v>0.5796330080444665</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.45014124967763</v>
+        <v>0.461258</v>
       </c>
       <c r="N3">
-        <v>0.45014124967763</v>
+        <v>1.383774</v>
       </c>
       <c r="O3">
-        <v>0.2445256076837229</v>
+        <v>0.2349536349222574</v>
       </c>
       <c r="P3">
-        <v>0.2445256076837229</v>
+        <v>0.2349536349222574</v>
       </c>
       <c r="Q3">
-        <v>5.0323324304766</v>
+        <v>5.275463404465333</v>
       </c>
       <c r="R3">
-        <v>5.0323324304766</v>
+        <v>47.47917064018801</v>
       </c>
       <c r="S3">
-        <v>0.1437496043989394</v>
+        <v>0.1361868821609695</v>
       </c>
       <c r="T3">
-        <v>0.1437496043989394</v>
+        <v>0.1361868821609695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.7376091292139</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H4">
-        <v>5.7376091292139</v>
+        <v>17.262925</v>
       </c>
       <c r="I4">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="J4">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.39073445222373</v>
+        <v>1.501929333333333</v>
       </c>
       <c r="N4">
-        <v>1.39073445222373</v>
+        <v>4.505788</v>
       </c>
       <c r="O4">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="P4">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="Q4">
-        <v>7.979490689391166</v>
+        <v>8.642564478877778</v>
       </c>
       <c r="R4">
-        <v>7.979490689391166</v>
+        <v>77.78308030990001</v>
       </c>
       <c r="S4">
-        <v>0.2279357824133979</v>
+        <v>0.2231091034120816</v>
       </c>
       <c r="T4">
-        <v>0.2279357824133979</v>
+        <v>0.2231091034120816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.7376091292139</v>
+        <v>5.754308333333334</v>
       </c>
       <c r="H5">
-        <v>5.7376091292139</v>
+        <v>17.262925</v>
       </c>
       <c r="I5">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="J5">
-        <v>0.3017121225175469</v>
+        <v>0.2916282118266253</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.45014124967763</v>
+        <v>0.461258</v>
       </c>
       <c r="N5">
-        <v>0.45014124967763</v>
+        <v>1.383774</v>
       </c>
       <c r="O5">
-        <v>0.2445256076837229</v>
+        <v>0.2349536349222574</v>
       </c>
       <c r="P5">
-        <v>0.2445256076837229</v>
+        <v>0.2349536349222574</v>
       </c>
       <c r="Q5">
-        <v>2.582734543586123</v>
+        <v>2.654220753216667</v>
       </c>
       <c r="R5">
-        <v>2.582734543586123</v>
+        <v>23.88798677895</v>
       </c>
       <c r="S5">
-        <v>0.073776340104149</v>
+        <v>0.06851910841454367</v>
       </c>
       <c r="T5">
-        <v>0.073776340104149</v>
+        <v>0.06851910841454367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.0997722810893</v>
+        <v>0.2670106666666667</v>
       </c>
       <c r="H6">
-        <v>2.0997722810893</v>
+        <v>0.8010320000000001</v>
       </c>
       <c r="I6">
-        <v>0.1104165058064459</v>
+        <v>0.0135320943453039</v>
       </c>
       <c r="J6">
-        <v>0.1104165058064459</v>
+        <v>0.0135320943453039</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.39073445222373</v>
+        <v>1.501929333333333</v>
       </c>
       <c r="N6">
-        <v>1.39073445222373</v>
+        <v>4.505788</v>
       </c>
       <c r="O6">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="P6">
-        <v>0.7554743923162771</v>
+        <v>0.7650463650777426</v>
       </c>
       <c r="Q6">
-        <v>2.920225653135299</v>
+        <v>0.4010311525795555</v>
       </c>
       <c r="R6">
-        <v>2.920225653135299</v>
+        <v>3.609280373216</v>
       </c>
       <c r="S6">
-        <v>0.08341684262581142</v>
+        <v>0.01035267959076382</v>
       </c>
       <c r="T6">
-        <v>0.08341684262581142</v>
+        <v>0.01035267959076382</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,185 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.2670106666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.8010320000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="J7">
+        <v>0.0135320943453039</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.461258</v>
+      </c>
+      <c r="N7">
+        <v>1.383774</v>
+      </c>
+      <c r="O7">
+        <v>0.2349536349222574</v>
+      </c>
+      <c r="P7">
+        <v>0.2349536349222574</v>
+      </c>
+      <c r="Q7">
+        <v>0.1231608060853333</v>
+      </c>
+      <c r="R7">
+        <v>1.108447254768</v>
+      </c>
+      <c r="S7">
+        <v>0.003179414754540076</v>
+      </c>
+      <c r="T7">
+        <v>0.003179414754540076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.0997722810893</v>
-      </c>
-      <c r="H7">
-        <v>2.0997722810893</v>
-      </c>
-      <c r="I7">
-        <v>0.1104165058064459</v>
-      </c>
-      <c r="J7">
-        <v>0.1104165058064459</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.45014124967763</v>
-      </c>
-      <c r="N7">
-        <v>0.45014124967763</v>
-      </c>
-      <c r="O7">
-        <v>0.2445256076837229</v>
-      </c>
-      <c r="P7">
-        <v>0.2445256076837229</v>
-      </c>
-      <c r="Q7">
-        <v>0.9451941186479852</v>
-      </c>
-      <c r="R7">
-        <v>0.9451941186479852</v>
-      </c>
-      <c r="S7">
-        <v>0.02699966318063451</v>
-      </c>
-      <c r="T7">
-        <v>0.02699966318063451</v>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.273219</v>
+      </c>
+      <c r="H8">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J8">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.501929333333333</v>
+      </c>
+      <c r="N8">
+        <v>4.505788</v>
+      </c>
+      <c r="O8">
+        <v>0.7650463650777426</v>
+      </c>
+      <c r="P8">
+        <v>0.7650463650777426</v>
+      </c>
+      <c r="Q8">
+        <v>3.414214297190666</v>
+      </c>
+      <c r="R8">
+        <v>30.727928674716</v>
+      </c>
+      <c r="S8">
+        <v>0.08813845619140012</v>
+      </c>
+      <c r="T8">
+        <v>0.08813845619140014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.273219</v>
+      </c>
+      <c r="H9">
+        <v>6.819656999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="J9">
+        <v>0.1152066857836043</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.461258</v>
+      </c>
+      <c r="N9">
+        <v>1.383774</v>
+      </c>
+      <c r="O9">
+        <v>0.2349536349222574</v>
+      </c>
+      <c r="P9">
+        <v>0.2349536349222574</v>
+      </c>
+      <c r="Q9">
+        <v>1.048540449502</v>
+      </c>
+      <c r="R9">
+        <v>9.436864045518</v>
+      </c>
+      <c r="S9">
+        <v>0.02706822959220419</v>
+      </c>
+      <c r="T9">
+        <v>0.02706822959220419</v>
       </c>
     </row>
   </sheetData>
